--- a/output/comparison/summary stats 2022 and 2023.xlsx
+++ b/output/comparison/summary stats 2022 and 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AnacondaProjects\CCC forecasting\output\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A45A43-2C2D-42E2-A1FA-C0E5B1C8DC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AAD167-6152-4D58-8D0E-066ACBE58F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15090" yWindow="3660" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t xml:space="preserve">Average RMSE </t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Average RMSE for Medium and Low Variance Predictions only</t>
+  </si>
+  <si>
+    <t>Model Variance  Tabulation</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -59,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -113,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -121,7 +133,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +448,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>0.26784345710965801</v>
@@ -446,7 +462,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>0.27647507797912918</v>
@@ -476,7 +492,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>0.11645159770234299</v>
@@ -490,7 +506,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
         <v>0.1347554544635898</v>
@@ -520,7 +536,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3">
         <v>0.28470072856320261</v>
@@ -534,7 +550,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3">
         <v>0.27037510633708778</v>
@@ -554,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -565,9 +581,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3">
         <v>0.414505656808145</v>
@@ -579,9 +595,9 @@
         <v>0.19452182203822441</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3">
         <v>0.410669212056258</v>
@@ -593,9 +609,123 @@
         <v>0.22462029030692199</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>250</v>
+      </c>
+      <c r="E23">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>128</v>
+      </c>
+      <c r="E24">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>248</v>
+      </c>
+      <c r="E26">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>115</v>
+      </c>
+      <c r="E27">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A23:A25"/>
+  </mergeCells>
   <conditionalFormatting sqref="B3:D15">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -607,7 +737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D19">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -618,6 +748,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C22:E22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C28">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D28">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E28">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>